--- a/medicine/Médecine vétérinaire/Shigeta_Animal_Pharmaceuticals/Shigeta_Animal_Pharmaceuticals.xlsx
+++ b/medicine/Médecine vétérinaire/Shigeta_Animal_Pharmaceuticals/Shigeta_Animal_Pharmaceuticals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Shigeta Animal Pharmaceuticals (japonais : シゲタ動物薬品工業株式会社) est une entreprise qui a mené des recherches dans le développement et la fabrication de médicaments vétérinaires à Oyabe, dans la préfecture de Toyama, au Japon. 
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise est créée en 1984 sous le nom de Blue Cross Co., Ltd., dont le siège social est situé à Kanazawa, Ishikawa. Elle fabrique et vend des réactifs de groupage sanguin pour chiens et chats.
-En 2000, le nom de la société devient Shigeta Animal Drug Industry Co., Ltd. En plus de la fabrication et de la vente des principaux produits et médicaments de groupage sanguin pour les animaux et produits sanguins, elle développe une machine commerciale de traitement des déchets qui peut décomposer complètement les déchets organiques. L'entreprise développe un large éventail d'activités telles que l'identification des zones de production alimentaire et des matières premières par tests ADN. Elle développe également pour la première fois au monde une méthode de groupage sanguin pour chiens et chats, utilisant des anticorps monoclonaux, ainsi qu'une souche vaccinale recombinante génique de vaccin contre la grippe aviaire hautement pathogène H5N1[1].
-L'entreprise possède également de nombreuses technologies uniques, et participe à la 2007 NEW Environmental Exhibition qui s'est tenue du 6 au 8 septembre 2007 à Osaka[2].
+En 2000, le nom de la société devient Shigeta Animal Drug Industry Co., Ltd. En plus de la fabrication et de la vente des principaux produits et médicaments de groupage sanguin pour les animaux et produits sanguins, elle développe une machine commerciale de traitement des déchets qui peut décomposer complètement les déchets organiques. L'entreprise développe un large éventail d'activités telles que l'identification des zones de production alimentaire et des matières premières par tests ADN. Elle développe également pour la première fois au monde une méthode de groupage sanguin pour chiens et chats, utilisant des anticorps monoclonaux, ainsi qu'une souche vaccinale recombinante génique de vaccin contre la grippe aviaire hautement pathogène H5N1.
+L'entreprise possède également de nombreuses technologies uniques, et participe à la 2007 NEW Environmental Exhibition qui s'est tenue du 6 au 8 septembre 2007 à Osaka.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Fermeture de l'entreprise</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2007, cinq accusés, dont le président Yoshiyuki Nishio, sont arrêtés pour avoir vendu des agents de groupage sanguin de chiens non homologués[3],[4].
-En mai 2007, avant la condamnation des accusés, le ministère de l'Éducation, de la Culture, des Sports, des Sciences et de la Technologie n'a pas pris les mesures appropriées sur la base de la loi sur la garantie de la biodiversité en réglementant l'utilisation des organismes génétiquement modifiés, etc. Et Est utilisé avec le Chiba Cancer Center et l'Université nationale de l'Université d'Hiroshima[5][pas clair].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2007, cinq accusés, dont le président Yoshiyuki Nishio, sont arrêtés pour avoir vendu des agents de groupage sanguin de chiens non homologués,.
+En mai 2007, avant la condamnation des accusés, le ministère de l'Éducation, de la Culture, des Sports, des Sciences et de la Technologie n'a pas pris les mesures appropriées sur la base de la loi sur la garantie de la biodiversité en réglementant l'utilisation des organismes génétiquement modifiés, etc. Et Est utilisé avec le Chiba Cancer Center et l'Université nationale de l'Université d'Hiroshima[pas clair].
 Shigeta Animal Pharmaceuticals ferme ses portes avant mai 2007, afin de prévenir la récurrence de l'utilisation d'organismes recombinants qui violaient la loi de Carthagène (loi concernant la protection de la biodiversité par le biais de réglementations telles que l'utilisation d'organismes génétiquement modifiés).
 Le siège social ferme fin février 2008 et fait faillite la même année. La dette totale de l'entreprise est d'environ 1,3 milliard de yens.
 Le 22 mai 2008, le président de la société est condamné par le tribunal de district à un an de prison ferme, quatre ans de prison avec sursis et à une amende d'un million de yens.
@@ -580,10 +596,12 @@
           <t>Abandon du siège social</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'heure actuelle, le site du siège social est abandonné avec de nombreux produits chimiques et équipements laissés à l'intérieur du bâtiment, et il est appelé "Biohazard Research Center" ou "S Industry" et attire l'attention des amateurs de sites à l'abandon[6].
-Le 29 avril 2021 un incendie d'origine suspecte se déclare au deuxième étage du bâtiment, le feu sera éteint au bout d'une heure et quarante minutes par les pompiers[7],[8]. Des traces de l'incendie sont visible depuis l'extérieur du bâtiment au deuxième et troisième étage.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'heure actuelle, le site du siège social est abandonné avec de nombreux produits chimiques et équipements laissés à l'intérieur du bâtiment, et il est appelé "Biohazard Research Center" ou "S Industry" et attire l'attention des amateurs de sites à l'abandon.
+Le 29 avril 2021 un incendie d'origine suspecte se déclare au deuxième étage du bâtiment, le feu sera éteint au bout d'une heure et quarante minutes par les pompiers,. Des traces de l'incendie sont visible depuis l'extérieur du bâtiment au deuxième et troisième étage.
 </t>
         </is>
       </c>
